--- a/docs/PPG/Metodologia.xlsx
+++ b/docs/PPG/Metodologia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA34C1D5-C50E-2341-A9E2-44566411C8F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47191B-FAD5-F544-8963-189670F415BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Formulário</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>https://forms.gle/a4P8MeKmfYmKadf76</t>
+  </si>
+  <si>
+    <t>Estrutura curricular</t>
+  </si>
+  <si>
+    <t>https://forms.gle/UmsyBZgcJRDTxpyQ6</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13381829-F521-3948-883F-1874EF635CE4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -453,16 +459,25 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{119971C0-FBCD-7949-A407-44B46093FD55}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{CBEE37A8-83C0-4341-BAB8-FA603EB44105}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Metodologia.xlsx
+++ b/docs/PPG/Metodologia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B47191B-FAD5-F544-8963-189670F415BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71F5F3-9317-4948-9859-10B67909591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Formulário</t>
   </si>
@@ -50,9 +50,6 @@
     <t>https://forms.gle/vp5yDpqrgb695M7y9</t>
   </si>
   <si>
-    <t>Pesquisa do Egresso</t>
-  </si>
-  <si>
     <t>https://forms.gle/a4P8MeKmfYmKadf76</t>
   </si>
   <si>
@@ -60,6 +57,15 @@
   </si>
   <si>
     <t>https://forms.gle/UmsyBZgcJRDTxpyQ6</t>
+  </si>
+  <si>
+    <t>Pesquisa do perfil do egresso</t>
+  </si>
+  <si>
+    <t>Pesquisa de Egressos de Destaque</t>
+  </si>
+  <si>
+    <t>https://forms.gle/jKNFR3JHzYpydy2R7</t>
   </si>
 </sst>
 </file>
@@ -135,9 +141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -175,7 +181,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -281,7 +287,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -423,7 +429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13381829-F521-3948-883F-1874EF635CE4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -459,18 +465,26 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -478,6 +492,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{119971C0-FBCD-7949-A407-44B46093FD55}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{CBEE37A8-83C0-4341-BAB8-FA603EB44105}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{50226AE4-0829-FB4C-A97B-4E3F87215804}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Metodologia.xlsx
+++ b/docs/PPG/Metodologia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71F5F3-9317-4948-9859-10B67909591C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B32F2-2253-A243-8116-BAB369AA04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Formulário</t>
   </si>
@@ -59,13 +59,19 @@
     <t>https://forms.gle/UmsyBZgcJRDTxpyQ6</t>
   </si>
   <si>
-    <t>Pesquisa do perfil do egresso</t>
-  </si>
-  <si>
     <t>Pesquisa de Egressos de Destaque</t>
   </si>
   <si>
     <t>https://forms.gle/jKNFR3JHzYpydy2R7</t>
+  </si>
+  <si>
+    <t>Qualidade da orientação</t>
+  </si>
+  <si>
+    <t>https://forms.gle/2Ggd8hZVugRU4LT96</t>
+  </si>
+  <si>
+    <t>Pesquisa do Perfil do Egresso</t>
   </si>
 </sst>
 </file>
@@ -437,9 +443,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13381829-F521-3948-883F-1874EF635CE4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -457,42 +465,51 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{119971C0-FBCD-7949-A407-44B46093FD55}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{CBEE37A8-83C0-4341-BAB8-FA603EB44105}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{50226AE4-0829-FB4C-A97B-4E3F87215804}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{119971C0-FBCD-7949-A407-44B46093FD55}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
+    <hyperlink ref="B2" r:id="rId3" xr:uid="{CBEE37A8-83C0-4341-BAB8-FA603EB44105}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{50226AE4-0829-FB4C-A97B-4E3F87215804}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{10B895A2-B896-FA4B-8FF6-7693962CADFB}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Metodologia.xlsx
+++ b/docs/PPG/Metodologia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B32F2-2253-A243-8116-BAB369AA04BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0061AF-4B49-E54D-9B95-F7DB1457CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
   </bookViews>
@@ -44,34 +44,34 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Qualidade das disciplinas</t>
-  </si>
-  <si>
     <t>https://forms.gle/vp5yDpqrgb695M7y9</t>
   </si>
   <si>
     <t>https://forms.gle/a4P8MeKmfYmKadf76</t>
   </si>
   <si>
-    <t>Estrutura curricular</t>
-  </si>
-  <si>
     <t>https://forms.gle/UmsyBZgcJRDTxpyQ6</t>
   </si>
   <si>
-    <t>Pesquisa de Egressos de Destaque</t>
-  </si>
-  <si>
     <t>https://forms.gle/jKNFR3JHzYpydy2R7</t>
   </si>
   <si>
-    <t>Qualidade da orientação</t>
-  </si>
-  <si>
     <t>https://forms.gle/2Ggd8hZVugRU4LT96</t>
   </si>
   <si>
-    <t>Pesquisa do Perfil do Egresso</t>
+    <t>Qualidade da Proposta Curricular</t>
+  </si>
+  <si>
+    <t>Qualidade das Disciplinas</t>
+  </si>
+  <si>
+    <t>Qualidade da Orientação</t>
+  </si>
+  <si>
+    <t>Perfil do Egresso</t>
+  </si>
+  <si>
+    <t>Egressos de Destaque</t>
   </si>
 </sst>
 </file>
@@ -445,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13381829-F521-3948-883F-1874EF635CE4}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -465,18 +463,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -484,23 +482,23 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PPG/Metodologia.xlsx
+++ b/docs/PPG/Metodologia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthur_sf/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0061AF-4B49-E54D-9B95-F7DB1457CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00C92EE-872D-EC40-B4DA-9A211326DDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
+    <workbookView xWindow="880" yWindow="660" windowWidth="27640" windowHeight="16840" xr2:uid="{240D67CA-E89E-3447-B43A-9274A07D4677}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulários" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Formulário</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Egressos de Destaque</t>
+  </si>
+  <si>
+    <t>Perfil do Candidato</t>
+  </si>
+  <si>
+    <t>https://forms.gle/JoGQAfsmZ6QjYFbA6</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13381829-F521-3948-883F-1874EF635CE4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,27 +493,36 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{119971C0-FBCD-7949-A407-44B46093FD55}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{590A3B41-D92E-8D46-8A8F-310C9E01F0AD}"/>
     <hyperlink ref="B2" r:id="rId3" xr:uid="{CBEE37A8-83C0-4341-BAB8-FA603EB44105}"/>
-    <hyperlink ref="B6" r:id="rId4" xr:uid="{50226AE4-0829-FB4C-A97B-4E3F87215804}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{50226AE4-0829-FB4C-A97B-4E3F87215804}"/>
     <hyperlink ref="B4" r:id="rId5" xr:uid="{10B895A2-B896-FA4B-8FF6-7693962CADFB}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{4CAC7EB1-1047-C643-836A-D9E1B24A8D7E}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
